--- a/Output/MonthReport.xlsx
+++ b/Output/MonthReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ron.hiscock\Documents\UiPath\Excel Example 3 automation\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59079276-EE40-484B-A22D-283EE77FB768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7801F5E2-54F5-4D13-B38D-FC52259CC90D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{169351CF-0779-4771-B016-779061B129FD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="111">
   <si>
     <t>Doc. Number</t>
   </si>
@@ -730,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88884CE3-E9AD-46B6-A309-C16AFEBAB4FA}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C101"/>
@@ -738,7 +738,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +754,14 @@
       <c r="E1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>301391492</v>
       </c>
@@ -771,8 +777,14 @@
       <c r="E2">
         <v>1750.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>10503.6</v>
+      </c>
+      <c r="G2">
+        <v>1750.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>344493736</v>
       </c>
@@ -788,8 +800,14 @@
       <c r="E3">
         <v>424.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2548.8000000000002</v>
+      </c>
+      <c r="G3">
+        <v>424.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>584836743</v>
       </c>
@@ -805,8 +823,14 @@
       <c r="E4">
         <v>716.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4298.3999999999996</v>
+      </c>
+      <c r="G4">
+        <v>716.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>696810766</v>
       </c>
@@ -822,8 +846,14 @@
       <c r="E5">
         <v>431</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>2586</v>
+      </c>
+      <c r="G5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>710626128</v>
       </c>
@@ -839,8 +869,14 @@
       <c r="E6">
         <v>218.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1310.4000000000001</v>
+      </c>
+      <c r="G6">
+        <v>218.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>819688255</v>
       </c>
@@ -856,8 +892,14 @@
       <c r="E7">
         <v>1299.5999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>7797.6</v>
+      </c>
+      <c r="G7">
+        <v>1299.5999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1189483470</v>
       </c>
@@ -873,8 +915,14 @@
       <c r="E8">
         <v>395.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2374.8000000000002</v>
+      </c>
+      <c r="G8">
+        <v>395.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1247112419</v>
       </c>
@@ -890,8 +938,14 @@
       <c r="E9">
         <v>1079.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>6478.8</v>
+      </c>
+      <c r="G9">
+        <v>1079.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1325892864</v>
       </c>
@@ -907,8 +961,14 @@
       <c r="E10">
         <v>1506</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9036</v>
+      </c>
+      <c r="G10">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1535158254</v>
       </c>
@@ -924,8 +984,14 @@
       <c r="E11">
         <v>1314.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>7888.8</v>
+      </c>
+      <c r="G11">
+        <v>1314.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1557872693</v>
       </c>
@@ -941,8 +1007,14 @@
       <c r="E12">
         <v>1979.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11875.2</v>
+      </c>
+      <c r="G12">
+        <v>1979.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1640688575</v>
       </c>
@@ -958,8 +1030,14 @@
       <c r="E13">
         <v>1974.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>11848.8</v>
+      </c>
+      <c r="G13">
+        <v>1974.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1670739277</v>
       </c>
@@ -975,8 +1053,14 @@
       <c r="E14">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>516</v>
+      </c>
+      <c r="G14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1821674998</v>
       </c>
@@ -992,8 +1076,14 @@
       <c r="E15">
         <v>1362.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>8173.2</v>
+      </c>
+      <c r="G15">
+        <v>1362.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1940537091</v>
       </c>
@@ -1009,8 +1099,14 @@
       <c r="E16">
         <v>876.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>5260.8</v>
+      </c>
+      <c r="G16">
+        <v>876.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1995748856</v>
       </c>
@@ -1026,8 +1122,14 @@
       <c r="E17">
         <v>1351.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>8109.6</v>
+      </c>
+      <c r="G17">
+        <v>1351.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2063332893</v>
       </c>
@@ -1043,8 +1145,14 @@
       <c r="E18">
         <v>1994</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>11964</v>
+      </c>
+      <c r="G18">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2070082886</v>
       </c>
@@ -1060,8 +1168,14 @@
       <c r="E19">
         <v>882</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>5292</v>
+      </c>
+      <c r="G19">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2108308179</v>
       </c>
@@ -1077,8 +1191,14 @@
       <c r="E20">
         <v>1653.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>9919.2000000000007</v>
+      </c>
+      <c r="G20">
+        <v>1653.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2145703919</v>
       </c>
@@ -1094,8 +1214,14 @@
       <c r="E21">
         <v>1625.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>9751.2000000000007</v>
+      </c>
+      <c r="G21">
+        <v>1625.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2528259912</v>
       </c>
@@ -1111,8 +1237,14 @@
       <c r="E22">
         <v>235.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1413.6</v>
+      </c>
+      <c r="G22">
+        <v>235.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2584752895</v>
       </c>
@@ -1128,8 +1260,14 @@
       <c r="E23">
         <v>789</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>4734</v>
+      </c>
+      <c r="G23">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2589735420</v>
       </c>
@@ -1145,8 +1283,14 @@
       <c r="E24">
         <v>1927.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>11564.4</v>
+      </c>
+      <c r="G24">
+        <v>1927.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2599166755</v>
       </c>
@@ -1162,8 +1306,14 @@
       <c r="E25">
         <v>1074.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>6448.8</v>
+      </c>
+      <c r="G25">
+        <v>1074.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2655378228</v>
       </c>
@@ -1179,8 +1329,14 @@
       <c r="E26">
         <v>616</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>3696</v>
+      </c>
+      <c r="G26">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2760484642</v>
       </c>
@@ -1196,8 +1352,14 @@
       <c r="E27">
         <v>892.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>5353.2</v>
+      </c>
+      <c r="G27">
+        <v>892.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2873399350</v>
       </c>
@@ -1213,8 +1375,14 @@
       <c r="E28">
         <v>1873.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>11241.6</v>
+      </c>
+      <c r="G28">
+        <v>1873.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2922933540</v>
       </c>
@@ -1230,8 +1398,14 @@
       <c r="E29">
         <v>528</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>3168</v>
+      </c>
+      <c r="G29">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3050268903</v>
       </c>
@@ -1247,8 +1421,14 @@
       <c r="E30">
         <v>360.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>2162.4</v>
+      </c>
+      <c r="G30">
+        <v>360.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3063442179</v>
       </c>
@@ -1264,8 +1444,14 @@
       <c r="E31">
         <v>826.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>4959.6000000000004</v>
+      </c>
+      <c r="G31">
+        <v>826.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3235131803</v>
       </c>
@@ -1281,8 +1467,14 @@
       <c r="E32">
         <v>581.20000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>3487.2</v>
+      </c>
+      <c r="G32">
+        <v>581.20000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3272744246</v>
       </c>
@@ -1298,8 +1490,14 @@
       <c r="E33">
         <v>1779.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>10675.2</v>
+      </c>
+      <c r="G33">
+        <v>1779.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3324963692</v>
       </c>
@@ -1315,8 +1513,14 @@
       <c r="E34">
         <v>809.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>4856.3999999999996</v>
+      </c>
+      <c r="G34">
+        <v>809.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3549956879</v>
       </c>
@@ -1332,8 +1536,14 @@
       <c r="E35">
         <v>487</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>2922</v>
+      </c>
+      <c r="G35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3798116537</v>
       </c>
@@ -1349,8 +1559,14 @@
       <c r="E36">
         <v>1262</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>7572</v>
+      </c>
+      <c r="G36">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3859776225</v>
       </c>
@@ -1366,8 +1582,14 @@
       <c r="E37">
         <v>1565.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>9391.2000000000007</v>
+      </c>
+      <c r="G37">
+        <v>1565.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3899360176</v>
       </c>
@@ -1383,8 +1605,14 @@
       <c r="E38">
         <v>1525.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>9151.2000000000007</v>
+      </c>
+      <c r="G38">
+        <v>1525.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4014088315</v>
       </c>
@@ -1400,8 +1628,14 @@
       <c r="E39">
         <v>1870.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>11224.8</v>
+      </c>
+      <c r="G39">
+        <v>1870.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4081538748</v>
       </c>
@@ -1417,8 +1651,14 @@
       <c r="E40">
         <v>834.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>5005.2</v>
+      </c>
+      <c r="G40">
+        <v>834.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4088197331</v>
       </c>
@@ -1434,8 +1674,14 @@
       <c r="E41">
         <v>1962.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>11773.2</v>
+      </c>
+      <c r="G41">
+        <v>1962.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4306664738</v>
       </c>
@@ -1451,8 +1697,14 @@
       <c r="E42">
         <v>1339.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>8035.2</v>
+      </c>
+      <c r="G42">
+        <v>1339.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4314582598</v>
       </c>
@@ -1468,8 +1720,14 @@
       <c r="E43">
         <v>1004.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>6028.8</v>
+      </c>
+      <c r="G43">
+        <v>1004.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4350648720</v>
       </c>
@@ -1485,8 +1743,14 @@
       <c r="E44">
         <v>1558.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>9349.2000000000007</v>
+      </c>
+      <c r="G44">
+        <v>1558.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4371610407</v>
       </c>
@@ -1502,8 +1766,14 @@
       <c r="E45">
         <v>457.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>2745.6</v>
+      </c>
+      <c r="G45">
+        <v>457.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4396103791</v>
       </c>
@@ -1519,8 +1789,14 @@
       <c r="E46">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>768</v>
+      </c>
+      <c r="G46">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4448112171</v>
       </c>
@@ -1536,8 +1812,14 @@
       <c r="E47">
         <v>670.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>4021.2</v>
+      </c>
+      <c r="G47">
+        <v>670.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4581808517</v>
       </c>
@@ -1553,8 +1835,14 @@
       <c r="E48">
         <v>656</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>3936</v>
+      </c>
+      <c r="G48">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4796405029</v>
       </c>
@@ -1570,8 +1858,14 @@
       <c r="E49">
         <v>1113</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>6678</v>
+      </c>
+      <c r="G49">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4921748485</v>
       </c>
@@ -1587,8 +1881,14 @@
       <c r="E50">
         <v>473.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>2841.6</v>
+      </c>
+      <c r="G50">
+        <v>473.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5453474984</v>
       </c>
@@ -1604,8 +1904,14 @@
       <c r="E51">
         <v>699.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>4196.3999999999996</v>
+      </c>
+      <c r="G51">
+        <v>699.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5656598490</v>
       </c>
@@ -1621,8 +1927,14 @@
       <c r="E52">
         <v>1676.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>10059.6</v>
+      </c>
+      <c r="G52">
+        <v>1676.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5706842005</v>
       </c>
@@ -1638,8 +1950,14 @@
       <c r="E53">
         <v>1456</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>8736</v>
+      </c>
+      <c r="G53">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5712180893</v>
       </c>
@@ -1655,8 +1973,14 @@
       <c r="E54">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>420</v>
+      </c>
+      <c r="G54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5796214458</v>
       </c>
@@ -1672,8 +1996,14 @@
       <c r="E55">
         <v>510.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>3063.6</v>
+      </c>
+      <c r="G55">
+        <v>510.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5800814438</v>
       </c>
@@ -1689,8 +2019,14 @@
       <c r="E56">
         <v>732.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>4394.3999999999996</v>
+      </c>
+      <c r="G56">
+        <v>732.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5834578709</v>
       </c>
@@ -1706,8 +2042,14 @@
       <c r="E57">
         <v>544.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>3267.6</v>
+      </c>
+      <c r="G57">
+        <v>544.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6071010616</v>
       </c>
@@ -1723,8 +2065,14 @@
       <c r="E58">
         <v>315.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1891.2</v>
+      </c>
+      <c r="G58">
+        <v>315.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6076769556</v>
       </c>
@@ -1740,8 +2088,14 @@
       <c r="E59">
         <v>1080</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>6480</v>
+      </c>
+      <c r="G59">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6087181936</v>
       </c>
@@ -1757,8 +2111,14 @@
       <c r="E60">
         <v>1947.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>11686.8</v>
+      </c>
+      <c r="G60">
+        <v>1947.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6093866711</v>
       </c>
@@ -1774,8 +2134,14 @@
       <c r="E61">
         <v>383.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>2302.8000000000002</v>
+      </c>
+      <c r="G61">
+        <v>383.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6238641630</v>
       </c>
@@ -1791,8 +2157,14 @@
       <c r="E62">
         <v>1920.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>11523.6</v>
+      </c>
+      <c r="G62">
+        <v>1920.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6334443718</v>
       </c>
@@ -1808,8 +2180,14 @@
       <c r="E63">
         <v>1599.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>9596.4</v>
+      </c>
+      <c r="G63">
+        <v>1599.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6382736869</v>
       </c>
@@ -1825,8 +2203,14 @@
       <c r="E64">
         <v>1138.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>6832.8</v>
+      </c>
+      <c r="G64">
+        <v>1138.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6407345657</v>
       </c>
@@ -1842,8 +2226,14 @@
       <c r="E65">
         <v>930.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>5581.2</v>
+      </c>
+      <c r="G65">
+        <v>930.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6476113995</v>
       </c>
@@ -1859,8 +2249,14 @@
       <c r="E66">
         <v>1639.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>9835.2000000000007</v>
+      </c>
+      <c r="G66">
+        <v>1639.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6654139710</v>
       </c>
@@ -1876,8 +2272,14 @@
       <c r="E67">
         <v>1198.5999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>7191.6</v>
+      </c>
+      <c r="G67">
+        <v>1198.5999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6690655378</v>
       </c>
@@ -1893,8 +2295,14 @@
       <c r="E68">
         <v>576.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>3458.4</v>
+      </c>
+      <c r="G68">
+        <v>576.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6886493954</v>
       </c>
@@ -1910,8 +2318,14 @@
       <c r="E69">
         <v>998.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>5991.6</v>
+      </c>
+      <c r="G69">
+        <v>998.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7046151500</v>
       </c>
@@ -1927,8 +2341,14 @@
       <c r="E70">
         <v>1827.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>10964.4</v>
+      </c>
+      <c r="G70">
+        <v>1827.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7059882652</v>
       </c>
@@ -1944,8 +2364,14 @@
       <c r="E71">
         <v>816</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>4896</v>
+      </c>
+      <c r="G71">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7275801788</v>
       </c>
@@ -1961,8 +2387,14 @@
       <c r="E72">
         <v>1816.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>10900.8</v>
+      </c>
+      <c r="G72">
+        <v>1816.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7453425369</v>
       </c>
@@ -1978,8 +2410,14 @@
       <c r="E73">
         <v>1825.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>10951.2</v>
+      </c>
+      <c r="G73">
+        <v>1825.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7491619375</v>
       </c>
@@ -1995,8 +2433,14 @@
       <c r="E74">
         <v>1732.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>10395.6</v>
+      </c>
+      <c r="G74">
+        <v>1732.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7574908423</v>
       </c>
@@ -2012,8 +2456,14 @@
       <c r="E75">
         <v>1558</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>9348</v>
+      </c>
+      <c r="G75">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7628380553</v>
       </c>
@@ -2029,8 +2479,14 @@
       <c r="E76">
         <v>1609.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>9656.4</v>
+      </c>
+      <c r="G76">
+        <v>1609.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7780238133</v>
       </c>
@@ -2046,8 +2502,14 @@
       <c r="E77">
         <v>1212.5999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>7275.6</v>
+      </c>
+      <c r="G77">
+        <v>1212.5999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7857668110</v>
       </c>
@@ -2063,8 +2525,14 @@
       <c r="E78">
         <v>505</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>3030</v>
+      </c>
+      <c r="G78">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7900224879</v>
       </c>
@@ -2080,8 +2548,14 @@
       <c r="E79">
         <v>849</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>5094</v>
+      </c>
+      <c r="G79">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7951469064</v>
       </c>
@@ -2097,8 +2571,14 @@
       <c r="E80">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>374.4</v>
+      </c>
+      <c r="G80">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8014752845</v>
       </c>
@@ -2114,8 +2594,14 @@
       <c r="E81">
         <v>1461</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>8766</v>
+      </c>
+      <c r="G81">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8125148091</v>
       </c>
@@ -2131,8 +2617,14 @@
       <c r="E82">
         <v>1652.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>9915.6</v>
+      </c>
+      <c r="G82">
+        <v>1652.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8145965305</v>
       </c>
@@ -2148,8 +2640,14 @@
       <c r="E83">
         <v>710.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>4263.6000000000004</v>
+      </c>
+      <c r="G83">
+        <v>710.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8197575841</v>
       </c>
@@ -2165,8 +2663,14 @@
       <c r="E84">
         <v>190.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>1144.8</v>
+      </c>
+      <c r="G84">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8285066584</v>
       </c>
@@ -2182,8 +2686,14 @@
       <c r="E85">
         <v>1254.5999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>7527.6</v>
+      </c>
+      <c r="G85">
+        <v>1254.5999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8393159088</v>
       </c>
@@ -2199,8 +2709,14 @@
       <c r="E86">
         <v>848.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>5089.2</v>
+      </c>
+      <c r="G86">
+        <v>848.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8521461724</v>
       </c>
@@ -2216,8 +2732,14 @@
       <c r="E87">
         <v>1408</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>8448</v>
+      </c>
+      <c r="G87">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8535017088</v>
       </c>
@@ -2233,8 +2755,14 @@
       <c r="E88">
         <v>1607.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>9646.7999999999993</v>
+      </c>
+      <c r="G88">
+        <v>1607.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8592887088</v>
       </c>
@@ -2250,8 +2778,14 @@
       <c r="E89">
         <v>124.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>747.6</v>
+      </c>
+      <c r="G89">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8743510414</v>
       </c>
@@ -2267,8 +2801,14 @@
       <c r="E90">
         <v>461.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>2769.6</v>
+      </c>
+      <c r="G90">
+        <v>461.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8767288098</v>
       </c>
@@ -2284,8 +2824,14 @@
       <c r="E91">
         <v>1005</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>6030</v>
+      </c>
+      <c r="G91">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9030362344</v>
       </c>
@@ -2301,8 +2847,14 @@
       <c r="E92">
         <v>1566</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>9396</v>
+      </c>
+      <c r="G92">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9160470472</v>
       </c>
@@ -2318,8 +2870,14 @@
       <c r="E93">
         <v>1637.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>9824.4</v>
+      </c>
+      <c r="G93">
+        <v>1637.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9167827396</v>
       </c>
@@ -2335,8 +2893,14 @@
       <c r="E94">
         <v>1619.4</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>9716.4</v>
+      </c>
+      <c r="G94">
+        <v>1619.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9191615273</v>
       </c>
@@ -2352,8 +2916,14 @@
       <c r="E95">
         <v>212.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>1273.2</v>
+      </c>
+      <c r="G95">
+        <v>212.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9212725452</v>
       </c>
@@ -2369,8 +2939,14 @@
       <c r="E96">
         <v>851.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>5108.3999999999996</v>
+      </c>
+      <c r="G96">
+        <v>851.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9389160868</v>
       </c>
@@ -2386,8 +2962,14 @@
       <c r="E97">
         <v>1427.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>8565.6</v>
+      </c>
+      <c r="G97">
+        <v>1427.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9397591136</v>
       </c>
@@ -2403,8 +2985,14 @@
       <c r="E98">
         <v>396.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>2380.8000000000002</v>
+      </c>
+      <c r="G98">
+        <v>396.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9699365891</v>
       </c>
@@ -2420,8 +3008,14 @@
       <c r="E99">
         <v>246.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>1477.2</v>
+      </c>
+      <c r="G99">
+        <v>246.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9701622924</v>
       </c>
@@ -2437,8 +3031,14 @@
       <c r="E100">
         <v>1684.6</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>10107.6</v>
+      </c>
+      <c r="G100">
+        <v>1684.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9837166255</v>
       </c>
@@ -2452,6 +3052,12 @@
         <v>36</v>
       </c>
       <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>36</v>
+      </c>
+      <c r="G101">
         <v>6</v>
       </c>
     </row>
